--- a/com.kasisoft.lgpl.plex.test/testdata/input/detection/detect-row.xlsx
+++ b/com.kasisoft.lgpl.plex.test/testdata/input/detection/detect-row.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2580" windowWidth="18675" windowHeight="6075"/>
   </bookViews>
   <sheets>
-    <sheet name="textual-columns-placed-detect" sheetId="1" r:id="rId1"/>
+    <sheet name="detect-row" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
